--- a/docentes/Castillo Cruz Carlos Samuel - Estadisticos 20242.xlsx
+++ b/docentes/Castillo Cruz Carlos Samuel - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>Mat</t>
   </si>
@@ -73,160 +73,13 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
     <t>VELAZQUEZ</t>
   </si>
   <si>
-    <t>ESTEVEZ</t>
-  </si>
-  <si>
-    <t>JUSTO</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>BERULES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>SANTOS</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>CERONIO</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HUESCA</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>ESPINDOLA</t>
-  </si>
-  <si>
     <t>PAZ</t>
   </si>
   <si>
-    <t>NEGRETE</t>
-  </si>
-  <si>
-    <t>UTRERA</t>
-  </si>
-  <si>
-    <t>ATLAHUA</t>
-  </si>
-  <si>
-    <t>MARCELINO</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>SOLANO</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>VENTURA</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>RAFAEL FELIPE</t>
-  </si>
-  <si>
-    <t>JOSUE YAHIR</t>
-  </si>
-  <si>
     <t>GUILLERMO ALEXANDER</t>
-  </si>
-  <si>
-    <t>JUAN SEBASTIAN</t>
-  </si>
-  <si>
-    <t>JAQUELINE</t>
-  </si>
-  <si>
-    <t>CARLOS DAVID</t>
-  </si>
-  <si>
-    <t>DANA INGRID</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>ROBBIE ALONSO</t>
-  </si>
-  <si>
-    <t>LUIS DAVID</t>
-  </si>
-  <si>
-    <t>ALEJANDRO</t>
-  </si>
-  <si>
-    <t>ERICK ANGEL</t>
-  </si>
-  <si>
-    <t>VICENTE ABIMAEL</t>
-  </si>
-  <si>
-    <t>JOSE ALDAIR</t>
-  </si>
-  <si>
-    <t>JAIME</t>
-  </si>
-  <si>
-    <t>ALEXIS</t>
-  </si>
-  <si>
-    <t>FELIX</t>
-  </si>
-  <si>
-    <t>JOEL MIGUEL</t>
   </si>
 </sst>
 </file>
@@ -627,7 +480,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -636,13 +489,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -721,18 +568,15 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
         <v>0</v>
       </c>
     </row>
@@ -747,16 +591,19 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="H3">
+        <v>9.699999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -809,18 +656,15 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
         <v>0</v>
       </c>
     </row>
@@ -857,7 +701,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -892,7 +736,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>23330051920006</v>
+        <v>22330051920314</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -901,453 +745,16 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>23330051920023</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>22330051920314</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>23330051920008</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>23330051920014</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>23330051920018</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>23330051920004</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>23330051920026</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>23330051920013</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>23330051920204</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>23330051920321</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>23330051920021</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>23330051920020</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>23330051920003</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>23330051920002</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>23330051920182</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>23330051920009</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>23330051920010</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>23330051920012</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>23330051920024</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
